--- a/biology/Zoologie/Balognathidae/Balognathidae.xlsx
+++ b/biology/Zoologie/Balognathidae/Balognathidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prioniodidae, Prioniodontidae
 Les Balognathidae forment une famille fossile de conodontes appartenant à l'ordre fossile des Prioniodontida, encore appelés « conodontes complexes ».
@@ -513,15 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Balognathidae est décrite en 1959 par le paléontologue et géologue américain Wilbert H. Hass (1906-1959)[1],[2].
-Synonymes
-Selon Paleobiology Database en 2024, cette famille fossile a deux synonymes :
-†Prioniodidae Ulrich &amp; Bassler, 1926
-†Prioniodontidae Ulrich &amp; Bassler, 1926
-Fossiles
-Selon Paleobiology Database en 2024, le nombre de collections de fossiles référencées est de 830 collections[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Balognathidae est décrite en 1959 par le paléontologue et géologue américain Wilbert H. Hass (1906-1959),.
 </t>
         </is>
       </c>
@@ -547,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2024, cette famille fossile a deux synonymes :
+†Prioniodidae Ulrich &amp; Bassler, 1926
+†Prioniodontidae Ulrich &amp; Bassler, 1926</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Balognathidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balognathidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2024, le nombre de collections de fossiles référencées est de 830 collections
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Balognathidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balognathidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Paleobiology Database en 2024, le nombre de genres fossiles référencés est de vingt-trois :
 †Amorphognathus Branson &amp; Mehl, 1933
@@ -584,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Balognathidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balognathidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phylogénie
